--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Проект Эйлер c#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459473E-C351-4767-A5E6-49D61A745274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5346FFFF-4250-4562-9E09-18A01DA4719B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10785" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,82 +470,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,29 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5346FFFF-4250-4562-9E09-18A01DA4719B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB6D20-0F82-4ECF-B143-16FBFA0D9F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Потраченное время(мин)</t>
+  </si>
+  <si>
+    <t>Сделано?</t>
+  </si>
+  <si>
+    <t>Итого сделал</t>
   </si>
 </sst>
 </file>
@@ -79,7 +91,22 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,2556 +382,7458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:E822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>IF(B2="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>SUM(C2:C822)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">IF(B3="",0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="1">IF(B67="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="2">IF(B131="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="3">IF(B195="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <f t="shared" ref="C259:C322" si="4">IF(B259="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <f t="shared" ref="C323:C386" si="5">IF(B323="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C368">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C370">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C379">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C380">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C381">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C382">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C383">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C384">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C385">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C386">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C387">
+        <f t="shared" ref="C387:C450" si="6">IF(B387="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C388">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C390">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C391">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C392">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C393">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C394">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C395">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C396">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C397">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C398">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C399">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C400">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C401">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C402">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C403">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C404">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C405">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C406">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C407">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C408">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C409">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C410">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C411">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C412">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C413">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C414">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C415">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C416">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C417">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C418">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C419">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C420">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C421">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C422">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C423">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C424">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C425">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C426">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C427">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C428">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C429">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C430">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C431">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C432">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C433">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C434">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C435">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C436">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C437">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C438">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C439">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C440">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C441">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C442">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C443">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C444">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C445">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C446">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C447">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C448">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C449">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C450">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C451">
+        <f t="shared" ref="C451:C514" si="7">IF(B451="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C452">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C453">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C454">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C455">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C456">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C457">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C458">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C459">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C460">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C461">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C462">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C463">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C464">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C465">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C466">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C467">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C468">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C469">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C470">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C471">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C472">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C473">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C474">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C475">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C476">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C477">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C478">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C479">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C480">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C481">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C482">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C483">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C484">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C485">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C486">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C487">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C488">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C489">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C490">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C491">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C492">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C493">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C494">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C495">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C496">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C497">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C499">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C500">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
+      <c r="C501">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="C502">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="C503">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="C504">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="C505">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="C506">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="C507">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="C508">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="C509">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="C510">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="C511">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="C512">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="C513">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="C514">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="C515">
+        <f t="shared" ref="C515:C578" si="8">IF(B515="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="C516">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="C517">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="C518">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="C519">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="C520">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="C521">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="C522">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="C523">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="C524">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="C525">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="C526">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="C527">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="C528">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="C529">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="C530">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="C531">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="C532">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="C533">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="C534">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="C535">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="C536">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="C537">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="C538">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="C539">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="C540">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="C541">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="C542">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="C543">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="C544">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="C545">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="C546">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="C547">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="C548">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="C549">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="C550">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="C551">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="C552">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="C553">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="C554">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="C555">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="C556">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="C557">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="C558">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="C559">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="C560">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="C561">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="C562">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="C563">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="C564">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="C565">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="C566">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="C567">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="C568">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="C569">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="C570">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="C571">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="C572">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="C573">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="C574">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="C575">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="C576">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="C577">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="C578">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="C579">
+        <f t="shared" ref="C579:C642" si="9">IF(B579="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="C580">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="C581">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="C582">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="C583">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="C584">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="C585">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="C586">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="C587">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="C588">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="C589">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="C590">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="C591">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="C592">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="C593">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="C594">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="C595">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="C596">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="C597">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="C598">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="C599">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="C600">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="C601">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="C602">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="C603">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="C604">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="C605">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="C606">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="C607">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="C608">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="C609">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="C610">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="C611">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="C612">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="C613">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="C614">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="C615">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="C616">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="C617">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="C618">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="C619">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="C620">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="C621">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="C622">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="C623">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="C624">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="C625">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="C626">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="C627">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="C628">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="C629">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="C630">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="C631">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="C632">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="C633">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="C634">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="C635">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="C636">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="C637">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="C638">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="C639">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="C640">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="C641">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="C642">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="C643">
+        <f t="shared" ref="C643:C706" si="10">IF(B643="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="C644">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="C645">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="C646">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="C647">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="C648">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="C649">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="C650">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>650</v>
+      </c>
+      <c r="C651">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>651</v>
+      </c>
+      <c r="C652">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>652</v>
+      </c>
+      <c r="C653">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>653</v>
+      </c>
+      <c r="C654">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>654</v>
+      </c>
+      <c r="C655">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>655</v>
+      </c>
+      <c r="C656">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>656</v>
+      </c>
+      <c r="C657">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>657</v>
+      </c>
+      <c r="C658">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>658</v>
+      </c>
+      <c r="C659">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>659</v>
+      </c>
+      <c r="C660">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>660</v>
+      </c>
+      <c r="C661">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>661</v>
+      </c>
+      <c r="C662">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>662</v>
+      </c>
+      <c r="C663">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>663</v>
+      </c>
+      <c r="C664">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>664</v>
+      </c>
+      <c r="C665">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>665</v>
+      </c>
+      <c r="C666">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>666</v>
+      </c>
+      <c r="C667">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>667</v>
+      </c>
+      <c r="C668">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>668</v>
+      </c>
+      <c r="C669">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>669</v>
+      </c>
+      <c r="C670">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>670</v>
+      </c>
+      <c r="C671">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>671</v>
+      </c>
+      <c r="C672">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>672</v>
+      </c>
+      <c r="C673">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>673</v>
+      </c>
+      <c r="C674">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>674</v>
+      </c>
+      <c r="C675">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>675</v>
+      </c>
+      <c r="C676">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>676</v>
+      </c>
+      <c r="C677">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>677</v>
+      </c>
+      <c r="C678">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>678</v>
+      </c>
+      <c r="C679">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>679</v>
+      </c>
+      <c r="C680">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>680</v>
+      </c>
+      <c r="C681">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>681</v>
+      </c>
+      <c r="C682">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>682</v>
+      </c>
+      <c r="C683">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>683</v>
+      </c>
+      <c r="C684">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>684</v>
+      </c>
+      <c r="C685">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>685</v>
+      </c>
+      <c r="C686">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>686</v>
+      </c>
+      <c r="C687">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>687</v>
+      </c>
+      <c r="C688">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>688</v>
+      </c>
+      <c r="C689">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>689</v>
+      </c>
+      <c r="C690">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>690</v>
+      </c>
+      <c r="C691">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>691</v>
+      </c>
+      <c r="C692">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>692</v>
+      </c>
+      <c r="C693">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>693</v>
+      </c>
+      <c r="C694">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>694</v>
+      </c>
+      <c r="C695">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>695</v>
+      </c>
+      <c r="C696">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>696</v>
+      </c>
+      <c r="C697">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>697</v>
+      </c>
+      <c r="C698">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>698</v>
+      </c>
+      <c r="C699">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>699</v>
+      </c>
+      <c r="C700">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>700</v>
+      </c>
+      <c r="C701">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>701</v>
+      </c>
+      <c r="C702">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>702</v>
+      </c>
+      <c r="C703">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>703</v>
+      </c>
+      <c r="C704">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>704</v>
+      </c>
+      <c r="C705">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>705</v>
+      </c>
+      <c r="C706">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>706</v>
+      </c>
+      <c r="C707">
+        <f t="shared" ref="C707:C770" si="11">IF(B707="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>707</v>
+      </c>
+      <c r="C708">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>708</v>
+      </c>
+      <c r="C709">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>709</v>
+      </c>
+      <c r="C710">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>710</v>
+      </c>
+      <c r="C711">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>711</v>
+      </c>
+      <c r="C712">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>712</v>
+      </c>
+      <c r="C713">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>713</v>
+      </c>
+      <c r="C714">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>714</v>
+      </c>
+      <c r="C715">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>715</v>
+      </c>
+      <c r="C716">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>716</v>
+      </c>
+      <c r="C717">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>717</v>
+      </c>
+      <c r="C718">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>718</v>
+      </c>
+      <c r="C719">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>719</v>
+      </c>
+      <c r="C720">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>720</v>
+      </c>
+      <c r="C721">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>721</v>
+      </c>
+      <c r="C722">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>722</v>
+      </c>
+      <c r="C723">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>723</v>
+      </c>
+      <c r="C724">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>724</v>
+      </c>
+      <c r="C725">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>725</v>
+      </c>
+      <c r="C726">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>726</v>
+      </c>
+      <c r="C727">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>727</v>
+      </c>
+      <c r="C728">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>728</v>
+      </c>
+      <c r="C729">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>729</v>
+      </c>
+      <c r="C730">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>730</v>
+      </c>
+      <c r="C731">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>731</v>
+      </c>
+      <c r="C732">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>732</v>
+      </c>
+      <c r="C733">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>733</v>
+      </c>
+      <c r="C734">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>734</v>
+      </c>
+      <c r="C735">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>735</v>
+      </c>
+      <c r="C736">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>736</v>
+      </c>
+      <c r="C737">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>737</v>
+      </c>
+      <c r="C738">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>738</v>
+      </c>
+      <c r="C739">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>739</v>
+      </c>
+      <c r="C740">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>740</v>
+      </c>
+      <c r="C741">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>741</v>
+      </c>
+      <c r="C742">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>742</v>
+      </c>
+      <c r="C743">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>743</v>
+      </c>
+      <c r="C744">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>744</v>
+      </c>
+      <c r="C745">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>745</v>
+      </c>
+      <c r="C746">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>746</v>
+      </c>
+      <c r="C747">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>747</v>
+      </c>
+      <c r="C748">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>748</v>
+      </c>
+      <c r="C749">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>749</v>
+      </c>
+      <c r="C750">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>750</v>
+      </c>
+      <c r="C751">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>751</v>
+      </c>
+      <c r="C752">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>752</v>
+      </c>
+      <c r="C753">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>753</v>
+      </c>
+      <c r="C754">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>754</v>
+      </c>
+      <c r="C755">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>755</v>
+      </c>
+      <c r="C756">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>756</v>
+      </c>
+      <c r="C757">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>757</v>
+      </c>
+      <c r="C758">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>758</v>
+      </c>
+      <c r="C759">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>759</v>
+      </c>
+      <c r="C760">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>760</v>
+      </c>
+      <c r="C761">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>761</v>
+      </c>
+      <c r="C762">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>762</v>
+      </c>
+      <c r="C763">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>763</v>
+      </c>
+      <c r="C764">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>764</v>
+      </c>
+      <c r="C765">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>765</v>
+      </c>
+      <c r="C766">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>766</v>
+      </c>
+      <c r="C767">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>767</v>
+      </c>
+      <c r="C768">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>768</v>
+      </c>
+      <c r="C769">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>769</v>
+      </c>
+      <c r="C770">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>770</v>
+      </c>
+      <c r="C771">
+        <f t="shared" ref="C771:C822" si="12">IF(B771="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>771</v>
+      </c>
+      <c r="C772">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>772</v>
+      </c>
+      <c r="C773">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>773</v>
+      </c>
+      <c r="C774">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>774</v>
+      </c>
+      <c r="C775">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>775</v>
+      </c>
+      <c r="C776">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>776</v>
+      </c>
+      <c r="C777">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="C778">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="C779">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="C780">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>780</v>
+      </c>
+      <c r="C781">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>781</v>
+      </c>
+      <c r="C782">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>782</v>
+      </c>
+      <c r="C783">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>783</v>
+      </c>
+      <c r="C784">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="C785">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>785</v>
+      </c>
+      <c r="C786">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>786</v>
+      </c>
+      <c r="C787">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>787</v>
+      </c>
+      <c r="C788">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>788</v>
+      </c>
+      <c r="C789">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>789</v>
+      </c>
+      <c r="C790">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>790</v>
+      </c>
+      <c r="C791">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>791</v>
+      </c>
+      <c r="C792">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>792</v>
+      </c>
+      <c r="C793">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>793</v>
+      </c>
+      <c r="C794">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>794</v>
+      </c>
+      <c r="C795">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>795</v>
+      </c>
+      <c r="C796">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>796</v>
+      </c>
+      <c r="C797">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>797</v>
+      </c>
+      <c r="C798">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>798</v>
+      </c>
+      <c r="C799">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>799</v>
+      </c>
+      <c r="C800">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>800</v>
+      </c>
+      <c r="C801">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>801</v>
+      </c>
+      <c r="C802">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>802</v>
+      </c>
+      <c r="C803">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>803</v>
+      </c>
+      <c r="C804">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>804</v>
+      </c>
+      <c r="C805">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>805</v>
+      </c>
+      <c r="C806">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>806</v>
+      </c>
+      <c r="C807">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>807</v>
+      </c>
+      <c r="C808">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>808</v>
+      </c>
+      <c r="C809">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>809</v>
+      </c>
+      <c r="C810">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>810</v>
+      </c>
+      <c r="C811">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>811</v>
+      </c>
+      <c r="C812">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>812</v>
+      </c>
+      <c r="C813">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>813</v>
+      </c>
+      <c r="C814">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>814</v>
+      </c>
+      <c r="C815">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>815</v>
+      </c>
+      <c r="C816">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>816</v>
+      </c>
+      <c r="C817">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>817</v>
+      </c>
+      <c r="C818">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>818</v>
+      </c>
+      <c r="C819">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>819</v>
+      </c>
+      <c r="C820">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>820</v>
+      </c>
+      <c r="C821">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>821</v>
+      </c>
+      <c r="C822">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB6D20-0F82-4ECF-B143-16FBFA0D9F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB197D01-6706-419F-9E62-6ECB822C0EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,22 +91,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -385,7 +370,7 @@
   <dimension ref="A1:E822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +407,7 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,12 +774,15 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB197D01-6706-419F-9E62-6ECB822C0EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9857455-914A-493C-93D2-C263ECC285A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,12 +534,15 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9857455-914A-493C-93D2-C263ECC285A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEE4EF-2A07-45C4-A8BD-00D555956CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +68,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -84,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E822"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +414,7 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,7 +532,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="C14">
@@ -657,12 +664,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEE4EF-2A07-45C4-A8BD-00D555956CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77036CE2-74E5-4ABC-87B5-97A9AB8BE3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,12 +1039,15 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
+      </c>
+      <c r="B68">
+        <v>80</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77036CE2-74E5-4ABC-87B5-97A9AB8BE3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2419BBB-78C7-441C-9F9D-3EA4297D31A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Номер</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Итого сделал</t>
+  </si>
+  <si>
+    <t>Сколько времени потратил</t>
+  </si>
+  <si>
+    <t>В часах:</t>
+  </si>
+  <si>
+    <t>В рабочих днях(8 ч)</t>
   </si>
 </sst>
 </file>
@@ -58,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +86,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -90,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E822"/>
+  <dimension ref="A1:H822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,23 +401,35 @@
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -414,10 +442,22 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:B822)</f>
+        <v>385</v>
+      </c>
+      <c r="G2">
+        <f>F2/60</f>
+        <v>6.416666666666667</v>
+      </c>
+      <c r="H2">
+        <f>G2/8</f>
+        <v>0.80208333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -429,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -441,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -453,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -465,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -477,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -486,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -495,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -504,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -513,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -522,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -531,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -540,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -552,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1339,12 +1379,15 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2419BBB-78C7-441C-9F9D-3EA4297D31A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C56154-3F01-42CA-A82F-4B0874B16748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,19 +442,19 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <f>SUM(B2:B822)</f>
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="G2">
         <f>F2/60</f>
-        <v>6.416666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H2">
         <f>G2/8</f>
-        <v>0.80208333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,12 +818,15 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/Сделал.xlsx
+++ b/Сделал.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewKorzh\Desktop\Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C56154-3F01-42CA-A82F-4B0874B16748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038BF75-FD69-48C7-B4E4-97C85493B3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,19 +442,19 @@
       </c>
       <c r="E2">
         <f>SUM(C2:C822)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <f>SUM(B2:B822)</f>
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G2">
         <f>F2/60</f>
-        <v>6.666666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="H2">
         <f>G2/8</f>
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -536,12 +536,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
